--- a/documents/DB定義書_#かけだしエンジニア.xlsx
+++ b/documents/DB定義書_#かけだしエンジニア.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\作成ドキュメント\#かけだしエンジニア\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA8802C-FDD2-468B-83E5-8DD784262CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9485DEE-0D1C-4E25-B270-2398A46A494A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -341,10 +341,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>use_club</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>趣味</t>
     <rPh sb="0" eb="2">
       <t>シュミ</t>
@@ -532,6 +528,10 @@
     <rPh sb="12" eb="14">
       <t>レンケツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_club</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1029,7 +1029,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1102,10 +1102,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1416,7 +1416,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1497,10 +1497,10 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1970,8 +1970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2089297-A2B4-4544-B4F7-6A4A07A767F0}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -2013,7 +2013,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2096,10 +2096,10 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2316,7 +2316,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>28</v>
@@ -2331,7 +2331,7 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>use_club varchar (20),</v>
+        <v>user_club varchar (20),</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -2339,10 +2339,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>28</v>
@@ -2365,10 +2365,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>28</v>
@@ -2574,6 +2574,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2581,7 +2582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE42DBD-83A6-4D0E-B99A-579865C3289F}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -2600,7 +2601,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2608,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -2624,7 +2625,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2640,7 +2641,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2654,7 +2655,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2707,10 +2708,10 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -2724,7 +2725,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2736,10 +2737,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -2754,7 +2755,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2762,10 +2763,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>28</v>
@@ -2788,10 +2789,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>28</v>
@@ -2814,10 +2815,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>42</v>
@@ -2830,7 +2831,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2842,10 +2843,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>42</v>
@@ -2858,7 +2859,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -2870,13 +2871,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2884,7 +2885,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -2896,7 +2897,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>33</v>
@@ -2912,7 +2913,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>

--- a/documents/DB定義書_#かけだしエンジニア.xlsx
+++ b/documents/DB定義書_#かけだしエンジニア.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9485DEE-0D1C-4E25-B270-2398A46A494A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F60969-967D-4237-92DC-1279780D6B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30600" yWindow="435" windowWidth="26220" windowHeight="14490" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="90">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -532,6 +531,54 @@
   </si>
   <si>
     <t>user_club</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理名はラベル名</t>
+    <rPh sb="0" eb="3">
+      <t>ロンリメイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理名はフィールド名</t>
+    <rPh sb="0" eb="3">
+      <t>ブツリメイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※論理名、物理名は学術的な表現。現実には上記のようなわかりやすい言葉で表現する</t>
+    <rPh sb="1" eb="4">
+      <t>ロンリメイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ブツリメイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ガクジュツテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゲンジツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウゲン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -539,7 +586,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +611,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -579,7 +635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -615,13 +671,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,6 +712,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1971,7 +2045,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2035,8 +2109,11 @@
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -2049,8 +2126,20 @@
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">

--- a/documents/DB定義書_#かけだしエンジニア.xlsx
+++ b/documents/DB定義書_#かけだしエンジニア.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F60969-967D-4237-92DC-1279780D6B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1064711A-1289-4E2D-AC12-D4F2DDF99AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="435" windowWidth="26220" windowHeight="14490" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="90">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -88,26 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>論理名</t>
-    <rPh sb="0" eb="2">
-      <t>ロンリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>物理名</t>
-    <rPh sb="0" eb="2">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイプ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -578,6 +558,20 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1067,7 +1061,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1089,13 +1083,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1103,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1116,29 +1110,33 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44354</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1146,13 +1144,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -1161,13 +1159,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1176,13 +1174,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1449,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1468,7 +1466,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1476,12 +1474,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
@@ -1490,40 +1490,46 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>44351</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44354</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -1532,31 +1538,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
@@ -1568,23 +1574,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1598,27 +1604,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1626,13 +1632,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -1640,7 +1646,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1654,13 +1660,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3">
         <v>40</v>
@@ -1668,7 +1674,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1682,13 +1688,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3">
         <v>40</v>
@@ -1696,7 +1702,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1710,13 +1716,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1736,13 +1742,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" s="3">
         <v>100</v>
@@ -1762,13 +1768,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1788,13 +1794,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1802,11 +1808,11 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -2031,7 +2037,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2044,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2089297-A2B4-4544-B4F7-6A4A07A767F0}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2063,7 +2069,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2071,13 +2077,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2087,7 +2093,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2100,41 +2106,45 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44354</v>
+      </c>
       <c r="F5" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F6" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -2146,31 +2156,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
@@ -2182,27 +2192,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2214,27 +2224,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2242,13 +2252,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3">
         <v>40</v>
@@ -2256,7 +2266,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2270,13 +2280,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3">
         <v>40</v>
@@ -2284,7 +2294,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2298,13 +2308,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
@@ -2324,13 +2334,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -2350,13 +2360,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" s="3">
         <v>100</v>
@@ -2376,13 +2386,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E17" s="3">
         <v>20</v>
@@ -2402,13 +2412,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" s="3">
         <v>20</v>
@@ -2428,13 +2438,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19" s="3">
         <v>100</v>
@@ -2454,13 +2464,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E20" s="3">
         <v>256</v>
@@ -2657,7 +2667,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2671,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE42DBD-83A6-4D0E-B99A-579865C3289F}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2690,7 +2700,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2698,13 +2708,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2714,7 +2724,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2727,29 +2737,33 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44354</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -2758,31 +2772,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
@@ -2794,27 +2808,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2826,13 +2840,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -2840,11 +2854,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2852,13 +2866,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -2878,13 +2892,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3">
         <v>256</v>
@@ -2904,13 +2918,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -2920,7 +2934,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2932,13 +2946,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -2948,7 +2962,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -2960,13 +2974,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2974,7 +2988,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -2986,13 +3000,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E17" s="3">
         <v>40</v>
@@ -3002,7 +3016,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -3245,7 +3259,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/documents/DB定義書_#かけだしエンジニア.xlsx
+++ b/documents/DB定義書_#かけだしエンジニア.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1064711A-1289-4E2D-AC12-D4F2DDF99AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5685D8A-5365-475B-9759-3192311E1F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11130" yWindow="0" windowWidth="9360" windowHeight="10845" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -457,10 +457,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>emagent</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0=緊急　1=緊急でない</t>
     <rPh sb="2" eb="4">
       <t>キンキュウ</t>
@@ -573,6 +569,10 @@
     <rPh sb="5" eb="6">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emergent</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1127,10 +1127,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -1447,7 +1447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1538,10 +1538,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -2050,7 +2050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2089297-A2B4-4544-B4F7-6A4A07A767F0}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2118,7 +2118,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
@@ -2137,14 +2137,14 @@
         <v>44354</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F6" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -2156,10 +2156,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -2415,7 +2415,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>26</v>
@@ -2681,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE42DBD-83A6-4D0E-B99A-579865C3289F}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2772,10 +2772,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2949,7 +2949,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>40</v>
@@ -2962,11 +2962,11 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>emagent char (1),</v>
+        <v>emergent char (1),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -2974,13 +2974,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2988,7 +2988,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -3000,7 +3000,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>31</v>
@@ -3016,7 +3016,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>

--- a/documents/DB定義書_#かけだしエンジニア.xlsx
+++ b/documents/DB定義書_#かけだしエンジニア.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5685D8A-5365-475B-9759-3192311E1F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80F1EB4-DE7E-4969-BDBE-0759E415F1E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11130" yWindow="0" windowWidth="9360" windowHeight="10845" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30390" yWindow="780" windowWidth="26220" windowHeight="14490" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -124,26 +124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テーブル論理名</t>
-    <rPh sb="4" eb="6">
-      <t>ロンリ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル物理名</t>
-    <rPh sb="4" eb="6">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイズ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -573,6 +553,17 @@
   </si>
   <si>
     <t>emergent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンティティ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1061,7 +1052,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1083,13 +1074,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1097,7 +1088,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1111,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1127,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>88</v>
@@ -1144,13 +1135,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -1159,13 +1150,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1174,13 +1165,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1447,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1466,7 +1457,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1474,13 +1465,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1490,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1503,26 +1494,26 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1538,22 +1529,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>11</v>
@@ -1574,23 +1565,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1604,27 +1595,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1632,13 +1623,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -1646,7 +1637,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1660,13 +1651,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3">
         <v>40</v>
@@ -1674,7 +1665,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1688,13 +1679,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3">
         <v>40</v>
@@ -1702,7 +1693,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1716,13 +1707,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1742,13 +1733,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" s="3">
         <v>100</v>
@@ -1768,13 +1759,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1794,13 +1785,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1808,11 +1799,11 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -2037,7 +2028,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2050,8 +2041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2089297-A2B4-4544-B4F7-6A4A07A767F0}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2069,7 +2060,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2077,13 +2068,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2093,7 +2084,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2106,29 +2097,29 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2137,14 +2128,14 @@
         <v>44354</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F6" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -2156,22 +2147,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>11</v>
@@ -2192,27 +2183,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2224,27 +2215,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2252,13 +2243,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3">
         <v>40</v>
@@ -2266,7 +2257,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2280,13 +2271,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3">
         <v>40</v>
@@ -2294,7 +2285,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2308,13 +2299,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
@@ -2334,13 +2325,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -2360,13 +2351,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" s="3">
         <v>100</v>
@@ -2386,13 +2377,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="3">
         <v>20</v>
@@ -2412,13 +2403,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18" s="3">
         <v>20</v>
@@ -2438,13 +2429,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19" s="3">
         <v>100</v>
@@ -2464,13 +2455,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E20" s="3">
         <v>256</v>
@@ -2667,7 +2658,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2681,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE42DBD-83A6-4D0E-B99A-579865C3289F}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2700,7 +2691,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2708,13 +2699,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2724,7 +2715,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2737,26 +2728,26 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2772,22 +2763,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>11</v>
@@ -2808,27 +2799,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2840,13 +2831,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -2854,11 +2845,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2866,13 +2857,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -2892,13 +2883,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3">
         <v>256</v>
@@ -2918,13 +2909,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -2934,7 +2925,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2946,13 +2937,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -2962,7 +2953,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -2974,13 +2965,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2988,7 +2979,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -3000,13 +2991,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="3">
         <v>40</v>
@@ -3016,7 +3007,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -3259,7 +3250,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/documents/DB定義書_#かけだしエンジニア.xlsx
+++ b/documents/DB定義書_#かけだしエンジニア.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80F1EB4-DE7E-4969-BDBE-0759E415F1E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EE8273-355B-438F-84C3-1C0F15893A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30390" yWindow="780" windowWidth="26220" windowHeight="14490" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30390" yWindow="780" windowWidth="26220" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="87">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -487,54 +487,6 @@
   </si>
   <si>
     <t>user_club</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>論理名はラベル名</t>
-    <rPh sb="0" eb="3">
-      <t>ロンリメイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>物理名はフィールド名</t>
-    <rPh sb="0" eb="3">
-      <t>ブツリメイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※論理名、物理名は学術的な表現。現実には上記のようなわかりやすい言葉で表現する</t>
-    <rPh sb="1" eb="4">
-      <t>ロンリメイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ブツリメイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ガクジュツテキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ゲンジツ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コトバ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒョウゲン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1051,7 +1003,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1118,10 +1070,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -1494,7 +1446,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
@@ -1510,7 +1462,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -1529,10 +1481,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -2042,7 +1994,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2097,7 +2049,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
@@ -2108,15 +2060,13 @@
       <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>82</v>
-      </c>
+      <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
@@ -2127,16 +2077,12 @@
       <c r="E5" s="7">
         <v>44354</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>83</v>
-      </c>
+      <c r="F5" s="9"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F6" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -2147,10 +2093,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -2672,7 +2618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE42DBD-83A6-4D0E-B99A-579865C3289F}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -2728,7 +2674,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>71</v>
@@ -2744,7 +2690,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>70</v>
@@ -2763,10 +2709,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -2940,7 +2886,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>38</v>

--- a/documents/DB定義書_#かけだしエンジニア.xlsx
+++ b/documents/DB定義書_#かけだしエンジニア.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EE8273-355B-438F-84C3-1C0F15893A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B470629D-6FBC-4736-A50B-5520FE78057B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30390" yWindow="780" windowWidth="26220" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="90">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -124,6 +124,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>テーブル論理名</t>
+    <rPh sb="4" eb="6">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル物理名</t>
+    <rPh sb="4" eb="6">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>サイズ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -490,6 +510,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>論理名はラベル名</t>
+    <rPh sb="0" eb="3">
+      <t>ロンリメイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理名はフィールド名</t>
+    <rPh sb="0" eb="3">
+      <t>ブツリメイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※論理名、物理名は学術的な表現。現実には上記のようなわかりやすい言葉で表現する</t>
+    <rPh sb="1" eb="4">
+      <t>ロンリメイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ブツリメイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ガクジュツテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゲンジツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ラベル名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -505,17 +573,6 @@
   </si>
   <si>
     <t>emergent</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エンティティ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1003,8 +1060,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1026,13 +1083,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1040,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1054,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1070,10 +1127,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -1087,13 +1144,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -1102,13 +1159,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1117,13 +1174,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1390,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1409,7 +1466,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1417,13 +1474,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1433,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1446,26 +1503,26 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1481,22 +1538,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>11</v>
@@ -1517,23 +1574,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1547,27 +1604,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1575,27 +1632,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E12" s="3">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_pw varchar (20),</v>
+        <v>user_pw varchar (256),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -1603,27 +1660,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_name varchar (40),</v>
+        <v>user_name varchar (256),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -1631,27 +1688,27 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>user_name_kana varchar (40),</v>
+        <v>user_name_kana varchar (256),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -1659,16 +1716,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1677,7 +1734,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>user_company varchar (100),</v>
+        <v>user_company varchar (256),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -1685,16 +1742,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E16" s="3">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1703,7 +1760,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>user_company_kana varchar (100),</v>
+        <v>user_company_kana varchar (256),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -1711,16 +1768,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1729,7 +1786,7 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>user_class char (1),</v>
+        <v>user_class varchar (256),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -1737,13 +1794,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1751,11 +1808,11 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -1980,7 +2037,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1993,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2089297-A2B4-4544-B4F7-6A4A07A767F0}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2012,7 +2069,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2020,13 +2077,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2036,7 +2093,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2049,27 +2106,29 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2077,12 +2136,16 @@
       <c r="E5" s="7">
         <v>44354</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -2093,22 +2156,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>11</v>
@@ -2129,27 +2192,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2161,27 +2224,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2189,27 +2252,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_name varchar (40),</v>
+        <v>user_name varchar (256),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2217,27 +2280,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_name_kana varchar (40),</v>
+        <v>user_name_kana varchar (256),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2245,16 +2308,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>256</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2263,7 +2326,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>user_blood varchar (3),</v>
+        <v>user_blood varchar (256),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2271,16 +2334,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2289,7 +2352,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>user_company varchar (100),</v>
+        <v>user_company varchar (256),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -2297,16 +2360,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E16" s="3">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2315,7 +2378,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>user_company_kana varchar (100),</v>
+        <v>user_company_kana varchar (256),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -2323,16 +2386,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E17" s="3">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -2341,7 +2404,7 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>user_career varchar (20),</v>
+        <v>user_career varchar (256),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -2349,16 +2412,16 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E18" s="3">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -2367,7 +2430,7 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>user_club varchar (20),</v>
+        <v>user_club varchar (256),</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -2375,16 +2438,16 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E19" s="3">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -2393,7 +2456,7 @@
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>user_hobby varchar (100),</v>
+        <v>user_hobby varchar (256),</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -2401,16 +2464,16 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E20" s="3">
-        <v>256</v>
+        <v>768</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -2419,7 +2482,7 @@
       <c r="J20" s="3"/>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v>user_intro varchar (256)</v>
+        <v>user_intro varchar (768)</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
@@ -2604,7 +2667,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2618,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE42DBD-83A6-4D0E-B99A-579865C3289F}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2637,7 +2700,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2645,13 +2708,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2661,7 +2724,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2674,26 +2737,26 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2709,22 +2772,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>11</v>
@@ -2745,27 +2808,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2777,13 +2840,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -2791,11 +2854,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2803,16 +2866,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>768</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2821,7 +2884,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>question varchar (200),</v>
+        <v>question varchar (768),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2829,16 +2892,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3">
-        <v>256</v>
+        <v>768</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2847,7 +2910,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>answer varchar (256),</v>
+        <v>answer varchar (768),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2855,13 +2918,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -2871,7 +2934,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2883,13 +2946,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -2899,7 +2962,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -2911,13 +2974,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2925,7 +2988,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -2937,27 +3000,27 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E17" s="3">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>user_name varchar (40)</v>
+        <v>user_name varchar (256)</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -3196,11 +3259,12 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/DB定義書_#かけだしエンジニア.xlsx
+++ b/documents/DB定義書_#かけだしエンジニア.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B470629D-6FBC-4736-A50B-5520FE78057B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C40F6B-4BB8-413D-9715-E829A8552C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="89">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -467,45 +467,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日付</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>降順</t>
-    <rPh sb="0" eb="2">
-      <t>コウジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>氏名</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブルuserのuser_nameと連結</t>
-    <rPh sb="19" eb="21">
-      <t>レンケツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブルuserのidと連結</t>
-    <rPh sb="12" eb="14">
-      <t>レンケツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_club</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -573,6 +534,38 @@
   </si>
   <si>
     <t>emergent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問ID</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下村真由</t>
+    <rPh sb="0" eb="4">
+      <t>シモムラマユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧で降順</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウジュン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -615,7 +608,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,6 +618,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,7 +679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,16 +704,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,7 +1056,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1127,10 +1123,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -1447,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1538,10 +1534,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -1626,6 +1622,10 @@
       <c r="J11" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user_id varchar (256),</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
@@ -1651,7 +1651,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>user_pw varchar (256),</v>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>user_name varchar (256),</v>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L16:L30" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>user_company_kana varchar (256),</v>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>user_class varchar (256),</v>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
         <v>43</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>user_role char (1)</v>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="L30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2048,10 +2048,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2089297-A2B4-4544-B4F7-6A4A07A767F0}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2117,11 +2117,11 @@
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
+      <c r="F4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -2136,30 +2136,30 @@
       <c r="E5" s="7">
         <v>44354</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
+      <c r="F5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="F6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -2215,7 +2215,7 @@
         <v>58</v>
       </c>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int ,</v>
       </c>
     </row>
@@ -2224,10 +2224,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>26</v>
@@ -2235,16 +2235,16 @@
       <c r="E11" s="3">
         <v>256</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>58</v>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user_name varchar (256),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2252,10 +2252,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>26</v>
@@ -2271,8 +2271,8 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_name varchar (256),</v>
+        <f t="shared" si="0"/>
+        <v>user_name_kana varchar (256),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2280,10 +2280,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>26</v>
@@ -2293,14 +2293,12 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_name_kana varchar (256),</v>
+        <v>user_blood varchar (256),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2308,10 +2306,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>26</v>
@@ -2326,7 +2324,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>user_blood varchar (256),</v>
+        <v>user_company varchar (256),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2334,10 +2332,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>26</v>
@@ -2351,8 +2349,8 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>user_company varchar (256),</v>
+        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>user_company_kana varchar (256),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -2360,10 +2358,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>26</v>
@@ -2377,8 +2375,8 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>user_company_kana varchar (256),</v>
+        <f t="shared" si="1"/>
+        <v>user_career varchar (256),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -2386,10 +2384,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>26</v>
@@ -2403,8 +2401,8 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>user_career varchar (256),</v>
+        <f t="shared" si="1"/>
+        <v>user_club varchar (256),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -2412,10 +2410,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>26</v>
@@ -2429,8 +2427,8 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v>user_club varchar (256),</v>
+        <f t="shared" si="1"/>
+        <v>user_hobby varchar (256),</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -2438,16 +2436,16 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="3">
-        <v>256</v>
+        <v>768</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -2455,34 +2453,26 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v>user_hobby varchar (256),</v>
+        <f t="shared" si="1"/>
+        <v>user_intro varchar (768)</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="3">
-        <v>768</v>
-      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v>user_intro varchar (768)</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
@@ -2499,7 +2489,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2517,7 +2507,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2535,7 +2525,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2553,7 +2543,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2571,7 +2561,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2589,7 +2579,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2607,7 +2597,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2625,7 +2615,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2643,30 +2633,12 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="L30" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L31" t="s">
+      <c r="L30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2679,10 +2651,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE42DBD-83A6-4D0E-B99A-579865C3289F}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2690,16 +2662,15 @@
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="5" max="6" width="16.375" customWidth="1"/>
     <col min="7" max="7" width="7.25" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="95.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2748,7 +2719,9 @@
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -2764,7 +2737,9 @@
       <c r="E5" s="7">
         <v>44354</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="7">
+        <v>44357</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -2772,10 +2747,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -2827,9 +2802,7 @@
         <v>27</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>id int ,</v>
@@ -2859,6 +2832,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
         <v>67</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>genre char (1),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2883,7 +2860,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>question varchar (768),</v>
       </c>
     </row>
@@ -2949,7 +2926,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>40</v>
@@ -2964,9 +2941,9 @@
       <c r="J15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>emergent char (1),</v>
+      <c r="L15" t="e">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -2974,53 +2951,44 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>date date ,</v>
+        <v>88</v>
+      </c>
+      <c r="L16" t="e">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="3">
-        <v>256</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>user_name varchar (256)</v>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -3037,7 +3005,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L16:L28" si="1">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3055,7 +3023,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3073,7 +3041,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3091,7 +3059,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3109,7 +3077,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3127,7 +3095,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3145,7 +3113,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3163,7 +3131,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3181,7 +3149,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3199,7 +3167,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3217,48 +3185,12 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="L30" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L31" t="s">
+      <c r="L29" t="s">
         <v>18</v>
       </c>
     </row>

--- a/documents/DB定義書_#かけだしエンジニア.xlsx
+++ b/documents/DB定義書_#かけだしエンジニア.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C40F6B-4BB8-413D-9715-E829A8552C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562A9698-0ED5-4235-8026-7A9586BD8E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="89">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -628,7 +628,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -673,13 +673,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,6 +722,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1056,7 +1070,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1443,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2048,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2089297-A2B4-4544-B4F7-6A4A07A767F0}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2211,9 +2225,6 @@
         <v>27</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int ,</v>
@@ -2241,9 +2252,11 @@
         <v>27</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L11:L27" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>user_name varchar (256),</v>
       </c>
     </row>
@@ -2271,7 +2284,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L12:L28" si="1">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>user_name_kana varchar (256),</v>
       </c>
     </row>
@@ -2297,7 +2310,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>user_blood varchar (256),</v>
       </c>
     </row>
@@ -2306,10 +2319,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>26</v>
@@ -2323,8 +2336,8 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>user_company varchar (256),</v>
+        <f t="shared" ref="L14:L28" si="2">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>user_career varchar (256),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2332,10 +2345,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>26</v>
@@ -2349,8 +2362,8 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>user_company_kana varchar (256),</v>
+        <f t="shared" si="0"/>
+        <v>user_club varchar (256),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -2358,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>26</v>
@@ -2375,8 +2388,8 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="1"/>
-        <v>user_career varchar (256),</v>
+        <f t="shared" ref="L16:L28" si="3">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>user_hobby varchar (256),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -2384,16 +2397,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="3">
-        <v>256</v>
+        <v>768</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -2401,60 +2414,44 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="1"/>
-        <v>user_club varchar (256),</v>
+        <f t="shared" si="0"/>
+        <v>user_intro varchar (768)</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="3">
-        <v>256</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="1"/>
-        <v>user_hobby varchar (256),</v>
+        <f t="shared" ref="L18:L28" si="4">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="3">
-        <v>768</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
-        <v>user_intro varchar (768)</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -2471,7 +2468,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L20:L28" si="5">C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2489,7 +2486,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2507,7 +2504,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L22:L28" si="6">C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2525,7 +2522,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2543,7 +2540,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L24:L28" si="7">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2561,7 +2558,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2579,7 +2576,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L26:L28" si="8">C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2597,49 +2594,14 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>18</v>
+        <f t="shared" ref="L28" si="9">C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
   </sheetData>
@@ -2653,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE42DBD-83A6-4D0E-B99A-579865C3289F}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2978,9 +2940,18 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="11">
+        <v>256</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2988,7 +2959,7 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">user_name varchar </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -3005,7 +2976,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" ref="L16:L28" si="1">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L18:L28" si="1">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/documents/DB定義書_#かけだしエンジニア.xlsx
+++ b/documents/DB定義書_#かけだしエンジニア.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562A9698-0ED5-4235-8026-7A9586BD8E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844F436D-85AC-4440-B7E3-CE5546CBDE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13485" yWindow="0" windowWidth="7185" windowHeight="10605" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="88">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -351,13 +351,6 @@
   </si>
   <si>
     <t>uniqe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブルuserと連結</t>
-    <rPh sb="9" eb="11">
-      <t>レンケツ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -628,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -666,17 +659,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -724,7 +706,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1093,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1107,7 +1089,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1137,10 +1119,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -1184,10 +1166,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
@@ -1458,7 +1440,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1484,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1500,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1548,10 +1530,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -2062,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2089297-A2B4-4544-B4F7-6A4A07A767F0}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2074,7 +2056,7 @@
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="7.25" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
@@ -2091,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -2107,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2131,11 +2113,14 @@
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>78</v>
+      <c r="F4" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
+      <c r="K4" s="10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -2150,30 +2135,33 @@
       <c r="E5" s="7">
         <v>44354</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>79</v>
+      <c r="F5" s="7">
+        <v>44361</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
+      <c r="K5" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F6" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -2226,7 +2214,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L26" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>id int ,</v>
       </c>
     </row>
@@ -2235,10 +2223,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>26</v>
@@ -2246,18 +2234,20 @@
       <c r="E11" s="3">
         <v>256</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L27" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_name varchar (256),</v>
+        <f t="shared" si="0"/>
+        <v>user_id varchar (256),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2265,10 +2255,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>26</v>
@@ -2278,14 +2268,12 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f t="shared" ref="L12:L28" si="1">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_name_kana varchar (256),</v>
+        <f t="shared" si="0"/>
+        <v>user_blood varchar (256),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2293,10 +2281,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>26</v>
@@ -2310,8 +2298,8 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>user_blood varchar (256),</v>
+        <f t="shared" ref="L13" si="1">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>user_career varchar (256),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2319,10 +2307,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>26</v>
@@ -2336,8 +2324,8 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" ref="L14:L28" si="2">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>user_career varchar (256),</v>
+        <f t="shared" si="0"/>
+        <v>user_club varchar (256),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2345,10 +2333,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>26</v>
@@ -2362,8 +2350,8 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>user_club varchar (256),</v>
+        <f t="shared" ref="L15" si="2">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>user_hobby varchar (256),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -2371,16 +2359,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="3">
-        <v>256</v>
+        <v>768</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2388,34 +2376,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L28" si="3">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>user_hobby varchar (256),</v>
+        <f t="shared" si="0"/>
+        <v>user_intro varchar (768)</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="3">
-        <v>768</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>user_intro varchar (768)</v>
+        <f t="shared" ref="L17" si="3">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -2432,7 +2412,543 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" ref="L18:L28" si="4">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" ref="L19" si="4">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" ref="L21" si="5">C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" ref="L23" si="6">C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" ref="L25" si="7">C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L27" t="str">
+        <f t="shared" ref="L27" si="8">C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE42DBD-83A6-4D0E-B99A-579865C3289F}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="6" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="95.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44351</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7">
+        <v>44354</v>
+      </c>
+      <c r="F5" s="7">
+        <v>44357</v>
+      </c>
+      <c r="G5" s="7">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table all_question (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3">
+        <v>256</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L28" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>user_id varchar (256),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>genre char (1),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3">
+        <v>768</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>question varchar (768),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3">
+        <v>768</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>answer varchar (768),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>faq char (1)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>emergent char (1)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">question_id int </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2468,7 +2984,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" ref="L20:L28" si="5">C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2504,7 +3020,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" ref="L22:L28" si="6">C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2540,7 +3056,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" ref="L24:L28" si="7">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2576,7 +3092,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" ref="L26:L28" si="8">C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2600,569 +3116,8 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L28" t="str">
-        <f t="shared" ref="L28" si="9">C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE42DBD-83A6-4D0E-B99A-579865C3289F}">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="95.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44351</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7">
-        <v>44354</v>
-      </c>
-      <c r="F5" s="7">
-        <v>44357</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table all_question (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>genre char (1),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3">
-        <v>768</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>question varchar (768),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3">
-        <v>768</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>answer varchar (768),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>faq char (1),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" t="e">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" t="e">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="11">
-        <v>256</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">user_name varchar </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" ref="L18:L28" si="1">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L29" t="s">
-        <v>18</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
   </sheetData>

--- a/documents/DB定義書_#かけだしエンジニア.xlsx
+++ b/documents/DB定義書_#かけだしエンジニア.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844F436D-85AC-4440-B7E3-CE5546CBDE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3875C28B-B008-4CF3-B124-71E99E83C783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13485" yWindow="0" windowWidth="7185" windowHeight="10605" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="91">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -558,6 +558,30 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>コウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答済み</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answered</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0=未回答　1=回答済</t>
+    <rPh sb="2" eb="5">
+      <t>ミカイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カイトウズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2578,7 +2602,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2588,7 +2612,7 @@
     <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="6" width="16.375" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
     <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="95.875" customWidth="1"/>
   </cols>
@@ -2649,6 +2673,9 @@
       <c r="G4" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -2668,6 +2695,9 @@
       </c>
       <c r="G5" s="7">
         <v>44361</v>
+      </c>
+      <c r="H5" s="7">
+        <v>44364</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -2875,7 +2905,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>faq char (1)</v>
+        <v>faq char (1),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -2938,18 +2968,28 @@
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>answered char (1)</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
